--- a/change in FMR 2019 to 2023.xlsx
+++ b/change in FMR 2019 to 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrisonlinder/Desktop/citizens duress/citizensduress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22ACEB0D-2464-C340-9DBE-C632DADCA32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2A099C-E620-AD4C-914B-9BD16D30409C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <definedName name="FY23_FMRs_revised">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -301,17 +302,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B336074-0E0D-9549-B101-D16234D1E2FD}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -638,12 +637,12 @@
       <c r="C1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2">
@@ -658,13 +657,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>867</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>734</v>
       </c>
       <c r="D3">
@@ -673,7 +672,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2">
@@ -688,13 +687,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>941</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>894</v>
       </c>
       <c r="D5">
@@ -703,7 +702,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2">
@@ -718,13 +717,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>746</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>736</v>
       </c>
       <c r="D7">
@@ -733,7 +732,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2">
@@ -748,13 +747,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>875</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>749</v>
       </c>
       <c r="D9">
@@ -763,7 +762,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2">
@@ -778,13 +777,13 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1">
         <v>997</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>769</v>
       </c>
       <c r="D11">
@@ -793,7 +792,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="2">
@@ -808,13 +807,13 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="1">
         <v>907</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>765</v>
       </c>
       <c r="D13">
@@ -823,7 +822,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="2">
@@ -838,13 +837,13 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="1">
         <v>961</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>776</v>
       </c>
       <c r="D15">
@@ -853,7 +852,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="2">
@@ -868,13 +867,13 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1">
         <v>1036</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>811</v>
       </c>
       <c r="D17">
@@ -883,7 +882,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="2">
@@ -898,13 +897,13 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="1">
         <v>738</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>641</v>
       </c>
       <c r="D19">
@@ -913,7 +912,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="2">
@@ -928,13 +927,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="1">
         <v>973</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>771</v>
       </c>
       <c r="D21">
@@ -943,7 +942,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="2">
@@ -958,13 +957,13 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="1">
         <v>857</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>736</v>
       </c>
       <c r="D23">
@@ -973,7 +972,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="2">
@@ -988,13 +987,13 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="1">
         <v>1017</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>680</v>
       </c>
       <c r="D25">
@@ -1003,7 +1002,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="2">
@@ -1018,13 +1017,13 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="1">
         <v>1137</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>945</v>
       </c>
       <c r="D27">
@@ -1033,7 +1032,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="2">
@@ -1048,13 +1047,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="1">
         <v>1814</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>1289</v>
       </c>
       <c r="D29">
@@ -1063,7 +1062,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="2">
@@ -1078,13 +1077,13 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="1">
         <v>2113</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>1632</v>
       </c>
       <c r="D31">
@@ -1093,7 +1092,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="2">
@@ -1108,13 +1107,13 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="1">
         <v>772</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>744</v>
       </c>
       <c r="D33">
@@ -1123,7 +1122,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="2">
@@ -1138,13 +1137,13 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="1">
         <v>1400</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <v>968</v>
       </c>
       <c r="D35">
@@ -1153,7 +1152,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="2">
@@ -1168,13 +1167,13 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="1">
         <v>1398</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>986</v>
       </c>
       <c r="D37">
@@ -1183,7 +1182,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="2">
@@ -1198,13 +1197,13 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="1">
         <v>2665</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="6">
         <v>2561</v>
       </c>
       <c r="D39">
@@ -1213,7 +1212,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="2">
@@ -1228,13 +1227,13 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="1">
         <v>1561</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="6">
         <v>1196</v>
       </c>
       <c r="D41">
@@ -1243,7 +1242,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="2">
@@ -1258,13 +1257,13 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="1">
         <v>2350</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <v>1667</v>
       </c>
       <c r="D43">
@@ -1273,7 +1272,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="2">
@@ -1288,13 +1287,13 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B45" s="1">
         <v>2502</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="6">
         <v>1844</v>
       </c>
       <c r="D45">
@@ -1303,7 +1302,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="2">
@@ -1318,13 +1317,13 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B47" s="1">
         <v>866</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="6">
         <v>984</v>
       </c>
       <c r="D47">
@@ -1333,7 +1332,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="2">
@@ -1348,13 +1347,13 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="1">
         <v>1620</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="6">
         <v>1184</v>
       </c>
       <c r="D49">
@@ -1363,7 +1362,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="2">
@@ -1378,13 +1377,13 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="1">
         <v>1072</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="6">
         <v>803</v>
       </c>
       <c r="D51">
@@ -1393,7 +1392,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B52" s="2">
@@ -1408,13 +1407,13 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B53" s="1">
         <v>819</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="6">
         <v>633</v>
       </c>
       <c r="D53">
@@ -1423,7 +1422,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B54" s="2">
@@ -1438,13 +1437,13 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="1">
         <v>848</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="6">
         <v>699</v>
       </c>
       <c r="D55">
@@ -1453,7 +1452,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B56" s="2">
@@ -1468,13 +1467,13 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B57" s="1">
         <v>2001</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="6">
         <v>1362</v>
       </c>
       <c r="D57">
@@ -1483,7 +1482,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B58" s="2">
@@ -1498,13 +1497,13 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="1">
         <v>1010</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="6">
         <v>674</v>
       </c>
       <c r="D59">
